--- a/data/concordances.xlsx
+++ b/data/concordances.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\NBA_fantasy\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R\Projects\NBA_fantasy\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B8AA434-2652-4246-91E4-86AC9D9BEAE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1530" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1530" yWindow="1560" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="team_codes" sheetId="1" r:id="rId1"/>
@@ -323,79 +322,79 @@
     <t>week_23</t>
   </si>
   <si>
-    <t>W1: 17 Oct - 23 Oct</t>
-  </si>
-  <si>
-    <t>W2: 24 Oct - 30 Oct</t>
-  </si>
-  <si>
-    <t>W3: 31 Oct - 6 Nov</t>
-  </si>
-  <si>
-    <t>W4: 7 Nov - 13 Nov</t>
-  </si>
-  <si>
-    <t>W5: 14 Nov - 20 Nov</t>
-  </si>
-  <si>
-    <t>W6: 21 Nov - 27 Nov</t>
-  </si>
-  <si>
-    <t>W7: 28 Nov - 4 Dec</t>
-  </si>
-  <si>
-    <t>W8: 5 Dec - 11 Dec</t>
-  </si>
-  <si>
-    <t>W9: 12 Dec - 18 Dec</t>
-  </si>
-  <si>
-    <t>W10: 19 Dec - 25 Dec</t>
-  </si>
-  <si>
-    <t>W11: 26 Dec - 1 Jan</t>
-  </si>
-  <si>
-    <t>W12: 2 Jan - 8 Jan</t>
-  </si>
-  <si>
-    <t>W13: 9 Jan - 15 Jan</t>
-  </si>
-  <si>
-    <t>W14: 16 Jan - 22 Jan</t>
-  </si>
-  <si>
-    <t>W15: 23 Jan - 29 Jan</t>
-  </si>
-  <si>
-    <t>W16: 30 Jan - 5 Feb</t>
-  </si>
-  <si>
-    <t>W17: 6 Feb - 12 Feb</t>
-  </si>
-  <si>
-    <t>W18: 13 Feb - 26 Feb</t>
-  </si>
-  <si>
-    <t>W19: 27 Feb - 5 Mar</t>
-  </si>
-  <si>
-    <t>W20: 6 Mar - 12 Mar</t>
-  </si>
-  <si>
-    <t>W21: 13 Mar - 19 Mar</t>
-  </si>
-  <si>
-    <t>W22: 20 Mar - 26 Mar</t>
-  </si>
-  <si>
-    <t>W23: 27 Mar - 2 Apr</t>
+    <t>W1: 23 Oct - 29 Oct</t>
+  </si>
+  <si>
+    <t>W2: 30 Oct - 5 Nov</t>
+  </si>
+  <si>
+    <t>W3: 6 Nov - 12 Nov</t>
+  </si>
+  <si>
+    <t>W4: 13 Nov - 19 Nov</t>
+  </si>
+  <si>
+    <t>W5: 20 Nov - 26 Nov</t>
+  </si>
+  <si>
+    <t>W6: 27 Nov - 3 Dec</t>
+  </si>
+  <si>
+    <t>W7: 4 Dec - 10 Dec</t>
+  </si>
+  <si>
+    <t>W8: 11 Dec - 17 Dec</t>
+  </si>
+  <si>
+    <t>W9: 18 Dec - 24 Dec</t>
+  </si>
+  <si>
+    <t>W10: 25 Dec - 31 Dec</t>
+  </si>
+  <si>
+    <t>W11: 1 Jan - 7 Jan</t>
+  </si>
+  <si>
+    <t>W12: 8 Jan - 14 Jan</t>
+  </si>
+  <si>
+    <t>W13: 15 Jan - 21 Jan</t>
+  </si>
+  <si>
+    <t>W14: 22 Jan - 28 Jan</t>
+  </si>
+  <si>
+    <t>W15: 29 Jan - 4 Feb</t>
+  </si>
+  <si>
+    <t>W16: 5 Feb - 11 Feb</t>
+  </si>
+  <si>
+    <t>W17: 12 Feb - 25 Feb</t>
+  </si>
+  <si>
+    <t>W18: 26 Feb - 3 Mar</t>
+  </si>
+  <si>
+    <t>W19: 4 Mar - 10 Mar</t>
+  </si>
+  <si>
+    <t>W20: 11 Mar - 17 Mar</t>
+  </si>
+  <si>
+    <t>W21: 18 Mar - 24 Mar</t>
+  </si>
+  <si>
+    <t>W22: 25 Mar - 31 Mar</t>
+  </si>
+  <si>
+    <t>W23: 1 Apr - 7 Apr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -706,7 +705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -971,7 +970,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D993B338-D9FD-4183-A112-1CEE74E356F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1036,7 +1035,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08DED469-7EE2-4ECA-8E98-102251020E51}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/data/concordances.xlsx
+++ b/data/concordances.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R\Projects\NBA_fantasy\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466C13C8-8079-49DE-9914-B1540E375785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1530" yWindow="1560" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="31230" yWindow="1905" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="team_codes" sheetId="1" r:id="rId1"/>
@@ -46,9 +47,6 @@
     <t>Toronto Raptors</t>
   </si>
   <si>
-    <t>SAS</t>
-  </si>
-  <si>
     <t>San Antonio Spurs</t>
   </si>
   <si>
@@ -64,9 +62,6 @@
     <t>Portland Trail Blazers</t>
   </si>
   <si>
-    <t>PHX</t>
-  </si>
-  <si>
     <t>Phoenix Suns</t>
   </si>
   <si>
@@ -82,21 +77,12 @@
     <t>Orlando Magic</t>
   </si>
   <si>
-    <t>OKL</t>
-  </si>
-  <si>
     <t>Oklahoma City Thunder</t>
   </si>
   <si>
-    <t>NYK</t>
-  </si>
-  <si>
     <t>New York Knicks</t>
   </si>
   <si>
-    <t>NOP</t>
-  </si>
-  <si>
     <t>New Orleans Pelicans</t>
   </si>
   <si>
@@ -148,9 +134,6 @@
     <t>Houston Rockets</t>
   </si>
   <si>
-    <t>GSW</t>
-  </si>
-  <si>
     <t>Golden State Warriors</t>
   </si>
   <si>
@@ -190,9 +173,6 @@
     <t>Charlotte Hornets</t>
   </si>
   <si>
-    <t>BRO</t>
-  </si>
-  <si>
     <t>Brooklyn Nets</t>
   </si>
   <si>
@@ -389,12 +369,33 @@
   </si>
   <si>
     <t>W23: 1 Apr - 7 Apr</t>
+  </si>
+  <si>
+    <t>OKC</t>
+  </si>
+  <si>
+    <t>GS</t>
+  </si>
+  <si>
+    <t>PHO</t>
+  </si>
+  <si>
+    <t>BKN</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -705,7 +706,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -718,226 +719,226 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -970,7 +971,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -983,50 +984,50 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1035,7 +1036,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1047,194 +1048,194 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B9" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B10" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B11" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B12" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B13" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B14" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B15" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B16" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B17" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B18" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B19" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B20" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B21" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B22" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B23" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B24" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/data/concordances.xlsx
+++ b/data/concordances.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R\Projects\NBA_fantasy\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466C13C8-8079-49DE-9914-B1540E375785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C3C0C7-E24E-45A8-BC57-7A5C3C27C1F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31230" yWindow="1905" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31230" yWindow="1905" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="team_codes" sheetId="1" r:id="rId1"/>
     <sheet name="data_names" sheetId="3" r:id="rId2"/>
     <sheet name="schedule_names" sheetId="4" r:id="rId3"/>
+    <sheet name="player_fix" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="127">
   <si>
     <t>WAS</t>
   </si>
@@ -390,6 +391,24 @@
   </si>
   <si>
     <t>NO</t>
+  </si>
+  <si>
+    <t>player_name</t>
+  </si>
+  <si>
+    <t>new_name</t>
+  </si>
+  <si>
+    <t>Nicolas Claxton</t>
+  </si>
+  <si>
+    <t>Nic Claxton</t>
+  </si>
+  <si>
+    <t>OG Anunoby</t>
+  </si>
+  <si>
+    <t>O.G. Anunoby</t>
   </si>
 </sst>
 </file>
@@ -709,7 +728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1241,4 +1260,45 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{475F22B5-11CC-4F1F-9A3C-AFFB59C5F189}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>